--- a/Output/Relatorio-Erros-DE325476.xlsx
+++ b/Output/Relatorio-Erros-DE325476.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14C14FC-ABA4-4EC0-A822-AF4C7EEFE9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E6E675-819F-4E5B-A646-3E8156AADC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{581B29EB-8F2B-405B-B65A-5F06320DD677}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-DE325476.xlsx
+++ b/Output/Relatorio-Erros-DE325476.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19076C9-1026-44E1-B752-3DEC363D584A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034CE015-1813-4668-9FB3-889E0AA9BCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{028B12C0-B5F7-4627-AF3D-A1ED9515039C}"/>
   </bookViews>
